--- a/Dataset_EDA_Feature_UMAP_Mahalanobis/new FeCrNiMoTi to hardness dataset.xlsx
+++ b/Dataset_EDA_Feature_UMAP_Mahalanobis/new FeCrNiMoTi to hardness dataset.xlsx
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="AE2" t="n">
-        <v>2.870756387710571</v>
+        <v>3.048986434936523</v>
       </c>
       <c r="AF2" t="n">
-        <v>12.8092737197876</v>
+        <v>14.19855213165283</v>
       </c>
     </row>
     <row r="3">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>2.684850215911865</v>
+        <v>3.158958435058594</v>
       </c>
       <c r="AF3" t="n">
-        <v>13.35012054443359</v>
+        <v>14.67528915405273</v>
       </c>
     </row>
     <row r="4">
@@ -884,10 +884,10 @@
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>2.855711221694946</v>
+        <v>3.253911733627319</v>
       </c>
       <c r="AF4" t="n">
-        <v>13.49337577819824</v>
+        <v>14.78826999664307</v>
       </c>
     </row>
     <row r="5">
@@ -984,10 +984,10 @@
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>2.897887229919434</v>
+        <v>3.339487314224243</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.72834587097168</v>
+        <v>15.0087947845459</v>
       </c>
     </row>
     <row r="6">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>2.895348072052002</v>
+        <v>3.268934011459351</v>
       </c>
       <c r="AF6" t="n">
-        <v>14.17603874206543</v>
+        <v>15.4818696975708</v>
       </c>
     </row>
     <row r="7">
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="AE7" t="n">
-        <v>2.289130449295044</v>
+        <v>2.643489360809326</v>
       </c>
       <c r="AF7" t="n">
-        <v>12.85116958618164</v>
+        <v>14.26635646820068</v>
       </c>
     </row>
     <row r="8">
@@ -1284,10 +1284,10 @@
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>2.350593328475952</v>
+        <v>2.766763687133789</v>
       </c>
       <c r="AF8" t="n">
-        <v>13.20383358001709</v>
+        <v>14.6733865737915</v>
       </c>
     </row>
     <row r="9">
@@ -1384,10 +1384,10 @@
         </is>
       </c>
       <c r="AE9" t="n">
-        <v>2.505403995513916</v>
+        <v>2.947901725769043</v>
       </c>
       <c r="AF9" t="n">
-        <v>13.572340965271</v>
+        <v>14.93699264526367</v>
       </c>
     </row>
     <row r="10">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="AE10" t="n">
-        <v>2.513240814208984</v>
+        <v>3.03215479850769</v>
       </c>
       <c r="AF10" t="n">
-        <v>13.87841892242432</v>
+        <v>15.22404766082764</v>
       </c>
     </row>
     <row r="11">
@@ -1584,10 +1584,10 @@
         </is>
       </c>
       <c r="AE11" t="n">
-        <v>2.679370880126953</v>
+        <v>3.107831478118896</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.04354000091553</v>
+        <v>15.38049697875977</v>
       </c>
     </row>
     <row r="12">
@@ -1684,10 +1684,10 @@
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>2.849969863891602</v>
+        <v>3.298761129379272</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.41193294525146</v>
+        <v>15.74327278137207</v>
       </c>
     </row>
     <row r="13">
@@ -1784,10 +1784,10 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>2.928596973419189</v>
+        <v>3.354927778244019</v>
       </c>
       <c r="AF13" t="n">
-        <v>14.79508304595947</v>
+        <v>16.12627220153809</v>
       </c>
     </row>
     <row r="14">
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>1.501665592193604</v>
+        <v>1.762137293815613</v>
       </c>
       <c r="AF14" t="n">
-        <v>12.62273979187012</v>
+        <v>14.24727058410645</v>
       </c>
     </row>
     <row r="15">
@@ -1984,10 +1984,10 @@
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>1.636781334877014</v>
+        <v>2.164197683334351</v>
       </c>
       <c r="AF15" t="n">
-        <v>13.22096538543701</v>
+        <v>14.80567073822021</v>
       </c>
     </row>
     <row r="16">
@@ -2084,10 +2084,10 @@
         </is>
       </c>
       <c r="AE16" t="n">
-        <v>1.730176329612732</v>
+        <v>2.394794702529907</v>
       </c>
       <c r="AF16" t="n">
-        <v>13.72957992553711</v>
+        <v>15.32405567169189</v>
       </c>
     </row>
     <row r="17">
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="AE17" t="n">
-        <v>2.108523845672607</v>
+        <v>2.70711612701416</v>
       </c>
       <c r="AF17" t="n">
-        <v>13.82752323150635</v>
+        <v>15.22656726837158</v>
       </c>
     </row>
     <row r="18">
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="AE18" t="n">
-        <v>2.309422731399536</v>
+        <v>2.857454061508179</v>
       </c>
       <c r="AF18" t="n">
-        <v>13.97284412384033</v>
+        <v>15.39282512664795</v>
       </c>
     </row>
     <row r="19">
@@ -2384,10 +2384,10 @@
         </is>
       </c>
       <c r="AE19" t="n">
-        <v>2.533977270126343</v>
+        <v>3.000916719436646</v>
       </c>
       <c r="AF19" t="n">
-        <v>14.40968990325928</v>
+        <v>15.81495380401611</v>
       </c>
     </row>
     <row r="20">
@@ -2484,10 +2484,10 @@
         </is>
       </c>
       <c r="AE20" t="n">
-        <v>2.760699272155762</v>
+        <v>3.196066379547119</v>
       </c>
       <c r="AF20" t="n">
-        <v>14.83643245697021</v>
+        <v>16.19318008422852</v>
       </c>
     </row>
     <row r="21">
@@ -2584,10 +2584,10 @@
         </is>
       </c>
       <c r="AE21" t="n">
-        <v>2.971529483795166</v>
+        <v>3.363282442092896</v>
       </c>
       <c r="AF21" t="n">
-        <v>15.11760902404785</v>
+        <v>16.40904808044434</v>
       </c>
     </row>
     <row r="22">
@@ -2684,10 +2684,10 @@
         </is>
       </c>
       <c r="AE22" t="n">
-        <v>3.052216529846191</v>
+        <v>3.431832075119019</v>
       </c>
       <c r="AF22" t="n">
-        <v>15.40328025817871</v>
+        <v>16.70996475219727</v>
       </c>
     </row>
     <row r="23">
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="AE23" t="n">
-        <v>1.327662944793701</v>
+        <v>1.478200554847717</v>
       </c>
       <c r="AF23" t="n">
-        <v>12.94418716430664</v>
+        <v>14.68713569641113</v>
       </c>
     </row>
     <row r="24">
@@ -2884,10 +2884,10 @@
         </is>
       </c>
       <c r="AE24" t="n">
-        <v>1.317022562026978</v>
+        <v>1.718989968299866</v>
       </c>
       <c r="AF24" t="n">
-        <v>13.21726131439209</v>
+        <v>14.94417858123779</v>
       </c>
     </row>
     <row r="25">
@@ -2984,10 +2984,10 @@
         </is>
       </c>
       <c r="AE25" t="n">
-        <v>1.358919024467468</v>
+        <v>2.011849880218506</v>
       </c>
       <c r="AF25" t="n">
-        <v>13.60873985290527</v>
+        <v>15.29533672332764</v>
       </c>
     </row>
     <row r="26">
@@ -3084,10 +3084,10 @@
         </is>
       </c>
       <c r="AE26" t="n">
-        <v>1.520377039909363</v>
+        <v>2.246812582015991</v>
       </c>
       <c r="AF26" t="n">
-        <v>13.70607376098633</v>
+        <v>15.39813709259033</v>
       </c>
     </row>
     <row r="27">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="AE27" t="n">
-        <v>1.943612098693848</v>
+        <v>2.483688354492188</v>
       </c>
       <c r="AF27" t="n">
-        <v>14.26290512084961</v>
+        <v>15.819580078125</v>
       </c>
     </row>
     <row r="28">
@@ -3284,10 +3284,10 @@
         </is>
       </c>
       <c r="AE28" t="n">
-        <v>2.257386922836304</v>
+        <v>2.706009864807129</v>
       </c>
       <c r="AF28" t="n">
-        <v>14.73274230957031</v>
+        <v>16.15385818481445</v>
       </c>
     </row>
     <row r="29">
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="AE29" t="n">
-        <v>2.605257749557495</v>
+        <v>3.023434162139893</v>
       </c>
       <c r="AF29" t="n">
-        <v>15.05055332183838</v>
+        <v>16.43810844421387</v>
       </c>
     </row>
     <row r="30">
@@ -3484,10 +3484,10 @@
         </is>
       </c>
       <c r="AE30" t="n">
-        <v>2.832012176513672</v>
+        <v>3.203835248947144</v>
       </c>
       <c r="AF30" t="n">
-        <v>15.31385803222656</v>
+        <v>16.62729835510254</v>
       </c>
     </row>
     <row r="31">
@@ -3584,10 +3584,10 @@
         </is>
       </c>
       <c r="AE31" t="n">
-        <v>3.040672540664673</v>
+        <v>3.428520202636719</v>
       </c>
       <c r="AF31" t="n">
-        <v>15.59538173675537</v>
+        <v>16.89436721801758</v>
       </c>
     </row>
     <row r="32">
@@ -3684,10 +3684,10 @@
         </is>
       </c>
       <c r="AE32" t="n">
-        <v>1.177607655525208</v>
+        <v>1.253238201141357</v>
       </c>
       <c r="AF32" t="n">
-        <v>13.19575214385986</v>
+        <v>14.86218929290771</v>
       </c>
     </row>
     <row r="33">
@@ -3784,10 +3784,10 @@
         </is>
       </c>
       <c r="AE33" t="n">
-        <v>1.111496090888977</v>
+        <v>1.428144097328186</v>
       </c>
       <c r="AF33" t="n">
-        <v>13.56827831268311</v>
+        <v>15.21390724182129</v>
       </c>
     </row>
     <row r="34">
@@ -3884,10 +3884,10 @@
         </is>
       </c>
       <c r="AE34" t="n">
-        <v>1.333951592445374</v>
+        <v>1.646275401115417</v>
       </c>
       <c r="AF34" t="n">
-        <v>13.81161117553711</v>
+        <v>15.43618869781494</v>
       </c>
     </row>
     <row r="35">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="AE35" t="n">
-        <v>1.480381369590759</v>
+        <v>1.843245983123779</v>
       </c>
       <c r="AF35" t="n">
-        <v>14.22418308258057</v>
+        <v>15.77967262268066</v>
       </c>
     </row>
     <row r="36">
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="AE36" t="n">
-        <v>1.76154625415802</v>
+        <v>2.163870811462402</v>
       </c>
       <c r="AF36" t="n">
-        <v>14.54166221618652</v>
+        <v>16.05665588378906</v>
       </c>
     </row>
     <row r="37">
@@ -4184,10 +4184,10 @@
         </is>
       </c>
       <c r="AE37" t="n">
-        <v>2.035283088684082</v>
+        <v>2.434584617614746</v>
       </c>
       <c r="AF37" t="n">
-        <v>14.8964672088623</v>
+        <v>16.35312843322754</v>
       </c>
     </row>
     <row r="38">
@@ -4284,10 +4284,10 @@
         </is>
       </c>
       <c r="AE38" t="n">
-        <v>2.309051275253296</v>
+        <v>2.715826511383057</v>
       </c>
       <c r="AF38" t="n">
-        <v>15.20853900909424</v>
+        <v>16.59934234619141</v>
       </c>
     </row>
     <row r="39">
@@ -4384,10 +4384,10 @@
         </is>
       </c>
       <c r="AE39" t="n">
-        <v>2.564239501953125</v>
+        <v>2.960421323776245</v>
       </c>
       <c r="AF39" t="n">
-        <v>15.49782180786133</v>
+        <v>16.86336326599121</v>
       </c>
     </row>
     <row r="40">
@@ -4484,10 +4484,10 @@
         </is>
       </c>
       <c r="AE40" t="n">
-        <v>2.800688028335571</v>
+        <v>3.156507253646851</v>
       </c>
       <c r="AF40" t="n">
-        <v>15.71883964538574</v>
+        <v>17.02183532714844</v>
       </c>
     </row>
     <row r="41">
@@ -4584,10 +4584,10 @@
         </is>
       </c>
       <c r="AE41" t="n">
-        <v>1.045531511306763</v>
+        <v>1.090214490890503</v>
       </c>
       <c r="AF41" t="n">
-        <v>13.48097896575928</v>
+        <v>15.0966968536377</v>
       </c>
     </row>
     <row r="42">
@@ -4684,10 +4684,10 @@
         </is>
       </c>
       <c r="AE42" t="n">
-        <v>1.137846231460571</v>
+        <v>1.276663303375244</v>
       </c>
       <c r="AF42" t="n">
-        <v>13.75683307647705</v>
+        <v>15.32936000823975</v>
       </c>
     </row>
     <row r="43">
@@ -4784,10 +4784,10 @@
         </is>
       </c>
       <c r="AE43" t="n">
-        <v>1.051879405975342</v>
+        <v>1.294190764427185</v>
       </c>
       <c r="AF43" t="n">
-        <v>14.02292633056641</v>
+        <v>15.5907564163208</v>
       </c>
     </row>
     <row r="44">
@@ -4884,10 +4884,10 @@
         </is>
       </c>
       <c r="AE44" t="n">
-        <v>1.2631676197052</v>
+        <v>1.58684766292572</v>
       </c>
       <c r="AF44" t="n">
-        <v>14.45742511749268</v>
+        <v>15.97738075256348</v>
       </c>
     </row>
     <row r="45">
@@ -4984,10 +4984,10 @@
         </is>
       </c>
       <c r="AE45" t="n">
-        <v>1.438255786895752</v>
+        <v>1.792916893959045</v>
       </c>
       <c r="AF45" t="n">
-        <v>14.62728786468506</v>
+        <v>16.12858200073242</v>
       </c>
     </row>
     <row r="46">
@@ -5084,10 +5084,10 @@
         </is>
       </c>
       <c r="AE46" t="n">
-        <v>1.69173526763916</v>
+        <v>2.077682971954346</v>
       </c>
       <c r="AF46" t="n">
-        <v>15.05672359466553</v>
+        <v>16.52140235900879</v>
       </c>
     </row>
     <row r="47">
@@ -5184,10 +5184,10 @@
         </is>
       </c>
       <c r="AE47" t="n">
-        <v>1.941754937171936</v>
+        <v>2.335130214691162</v>
       </c>
       <c r="AF47" t="n">
-        <v>15.41334819793701</v>
+        <v>16.83902740478516</v>
       </c>
     </row>
     <row r="48">
@@ -5284,10 +5284,10 @@
         </is>
       </c>
       <c r="AE48" t="n">
-        <v>2.31147575378418</v>
+        <v>2.698145389556885</v>
       </c>
       <c r="AF48" t="n">
-        <v>15.54245758056641</v>
+        <v>16.9146785736084</v>
       </c>
     </row>
     <row r="49">
@@ -5384,10 +5384,10 @@
         </is>
       </c>
       <c r="AE49" t="n">
-        <v>2.689431190490723</v>
+        <v>3.068830251693726</v>
       </c>
       <c r="AF49" t="n">
-        <v>15.68072414398193</v>
+        <v>17.04213523864746</v>
       </c>
     </row>
     <row r="50">
@@ -5484,10 +5484,10 @@
         </is>
       </c>
       <c r="AE50" t="n">
-        <v>0.9969260096549988</v>
+        <v>1.119083642959595</v>
       </c>
       <c r="AF50" t="n">
-        <v>13.97521781921387</v>
+        <v>15.52112483978271</v>
       </c>
     </row>
     <row r="51">
@@ -5584,10 +5584,10 @@
         </is>
       </c>
       <c r="AE51" t="n">
-        <v>0.7766002416610718</v>
+        <v>0.9675148129463196</v>
       </c>
       <c r="AF51" t="n">
-        <v>14.08090782165527</v>
+        <v>15.61314487457275</v>
       </c>
     </row>
     <row r="52">
@@ -5684,10 +5684,10 @@
         </is>
       </c>
       <c r="AE52" t="n">
-        <v>0.9440159797668457</v>
+        <v>1.146602749824524</v>
       </c>
       <c r="AF52" t="n">
-        <v>14.22518348693848</v>
+        <v>15.75729751586914</v>
       </c>
     </row>
     <row r="53">
@@ -5784,10 +5784,10 @@
         </is>
       </c>
       <c r="AE53" t="n">
-        <v>0.989915668964386</v>
+        <v>1.300629377365112</v>
       </c>
       <c r="AF53" t="n">
-        <v>14.68416500091553</v>
+        <v>16.19294166564941</v>
       </c>
     </row>
     <row r="54">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="AE54" t="n">
-        <v>1.219792485237122</v>
+        <v>1.578214526176453</v>
       </c>
       <c r="AF54" t="n">
-        <v>15.03588485717773</v>
+        <v>16.5205135345459</v>
       </c>
     </row>
     <row r="55">
@@ -5984,10 +5984,10 @@
         </is>
       </c>
       <c r="AE55" t="n">
-        <v>1.444034934043884</v>
+        <v>1.819749593734741</v>
       </c>
       <c r="AF55" t="n">
-        <v>15.11165237426758</v>
+        <v>16.58085632324219</v>
       </c>
     </row>
     <row r="56">
@@ -6084,10 +6084,10 @@
         </is>
       </c>
       <c r="AE56" t="n">
-        <v>1.632636070251465</v>
+        <v>2.028735399246216</v>
       </c>
       <c r="AF56" t="n">
-        <v>15.4625244140625</v>
+        <v>16.90520286560059</v>
       </c>
     </row>
     <row r="57">
@@ -6184,10 +6184,10 @@
         </is>
       </c>
       <c r="AE57" t="n">
-        <v>2.048173904418945</v>
+        <v>2.44606876373291</v>
       </c>
       <c r="AF57" t="n">
-        <v>15.54605960845947</v>
+        <v>16.96755027770996</v>
       </c>
     </row>
     <row r="58">
@@ -6284,10 +6284,10 @@
         </is>
       </c>
       <c r="AE58" t="n">
-        <v>2.322934627532959</v>
+        <v>2.717647552490234</v>
       </c>
       <c r="AF58" t="n">
-        <v>15.66537189483643</v>
+        <v>17.05212020874023</v>
       </c>
     </row>
     <row r="59">
@@ -6384,10 +6384,10 @@
         </is>
       </c>
       <c r="AE59" t="n">
-        <v>0.9216912388801575</v>
+        <v>1.166656136512756</v>
       </c>
       <c r="AF59" t="n">
-        <v>14.36665153503418</v>
+        <v>15.84199905395508</v>
       </c>
     </row>
     <row r="60">
@@ -6484,10 +6484,10 @@
         </is>
       </c>
       <c r="AE60" t="n">
-        <v>0.7077822685241699</v>
+        <v>0.9909321665763855</v>
       </c>
       <c r="AF60" t="n">
-        <v>14.5759162902832</v>
+        <v>16.08383369445801</v>
       </c>
     </row>
     <row r="61">
@@ -6584,10 +6584,10 @@
         </is>
       </c>
       <c r="AE61" t="n">
-        <v>0.7428005933761597</v>
+        <v>1.040380954742432</v>
       </c>
       <c r="AF61" t="n">
-        <v>14.8833475112915</v>
+        <v>16.37764549255371</v>
       </c>
     </row>
     <row r="62">
@@ -6684,10 +6684,10 @@
         </is>
       </c>
       <c r="AE62" t="n">
-        <v>0.9165142774581909</v>
+        <v>1.263261318206787</v>
       </c>
       <c r="AF62" t="n">
-        <v>15.1150951385498</v>
+        <v>16.6052360534668</v>
       </c>
     </row>
     <row r="63">
@@ -6784,10 +6784,10 @@
         </is>
       </c>
       <c r="AE63" t="n">
-        <v>1.188111543655396</v>
+        <v>1.546685695648193</v>
       </c>
       <c r="AF63" t="n">
-        <v>15.31818866729736</v>
+        <v>16.79434394836426</v>
       </c>
     </row>
     <row r="64">
@@ -6884,10 +6884,10 @@
         </is>
       </c>
       <c r="AE64" t="n">
-        <v>1.483767986297607</v>
+        <v>1.877916216850281</v>
       </c>
       <c r="AF64" t="n">
-        <v>15.38860607147217</v>
+        <v>16.81621551513672</v>
       </c>
     </row>
     <row r="65">
@@ -6984,10 +6984,10 @@
         </is>
       </c>
       <c r="AE65" t="n">
-        <v>1.824086785316467</v>
+        <v>2.220521688461304</v>
       </c>
       <c r="AF65" t="n">
-        <v>15.47102832794189</v>
+        <v>16.89978408813477</v>
       </c>
     </row>
     <row r="66">
@@ -7084,10 +7084,10 @@
         </is>
       </c>
       <c r="AE66" t="n">
-        <v>0.8460720181465149</v>
+        <v>1.139411330223083</v>
       </c>
       <c r="AF66" t="n">
-        <v>14.59214878082275</v>
+        <v>16.07024192810059</v>
       </c>
     </row>
     <row r="67">
@@ -7184,10 +7184,10 @@
         </is>
       </c>
       <c r="AE67" t="n">
-        <v>0.6564703583717346</v>
+        <v>1.068029403686523</v>
       </c>
       <c r="AF67" t="n">
-        <v>14.68606662750244</v>
+        <v>16.1440486907959</v>
       </c>
     </row>
     <row r="68">
@@ -7284,10 +7284,10 @@
         </is>
       </c>
       <c r="AE68" t="n">
-        <v>0.8036770820617676</v>
+        <v>1.139615297317505</v>
       </c>
       <c r="AF68" t="n">
-        <v>15.02687454223633</v>
+        <v>16.52154922485352</v>
       </c>
     </row>
     <row r="69">
@@ -7384,10 +7384,10 @@
         </is>
       </c>
       <c r="AE69" t="n">
-        <v>1.114066004753113</v>
+        <v>1.44741427898407</v>
       </c>
       <c r="AF69" t="n">
-        <v>14.96071529388428</v>
+        <v>16.44603729248047</v>
       </c>
     </row>
     <row r="70">
@@ -7484,10 +7484,10 @@
         </is>
       </c>
       <c r="AE70" t="n">
-        <v>1.134074568748474</v>
+        <v>1.525559544563293</v>
       </c>
       <c r="AF70" t="n">
-        <v>15.35137844085693</v>
+        <v>16.81131744384766</v>
       </c>
     </row>
   </sheetData>
